--- a/spec/ASW/Eng/Fuel/Rail/RailP/RailP_VD/RailP_VD.xlsx
+++ b/spec/ASW/Eng/Fuel/Rail/RailP/RailP_VD/RailP_VD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\Rail\RailP\RailP_VD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82362C72-D005-4785-94C7-010F01CA7395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,210 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailP_pLin</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>Fuel pressure</t>
+  </si>
+  <si>
+    <t>Rail_pSetPoint</t>
+  </si>
+  <si>
+    <t>Rail pressure setpoint</t>
+  </si>
+  <si>
+    <t>MeUn_dvolSet</t>
+  </si>
+  <si>
+    <t>mm^3/s</t>
+  </si>
+  <si>
+    <t>Setpoint value (volume flow) of rail pressure governing</t>
+  </si>
+  <si>
+    <t>Rail_dvolDemSysNom</t>
+  </si>
+  <si>
+    <t>Volume flow demanded overall for a nominal injection system</t>
+  </si>
+  <si>
+    <t>InjCtl_qSetUnBal</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>Current injection quantity</t>
+  </si>
+  <si>
+    <t>DSM_bRailPSubsVal</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Status of FId_RailPSubsVal</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>RailP_pFlt</t>
+  </si>
+  <si>
+    <t>Maximum rail pressure of the last 10 sampling cycle</t>
+  </si>
+  <si>
+    <t>RailP_pSubsVal_mp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail pressure substitution value in case of an error in pressure sensor </t>
+  </si>
+  <si>
+    <t>RailP_pFltNoCor_mp</t>
+  </si>
+  <si>
+    <t>Not corrected rail pressure</t>
+  </si>
+  <si>
+    <t>RailP_facFltPT1_mp</t>
+  </si>
+  <si>
+    <t>Current filter time for PT1 filter</t>
+  </si>
+  <si>
+    <t>RailP_dvolSubsCtlDlvMeUn_mp</t>
+  </si>
+  <si>
+    <t>Open loop controlled volume flow in limp home mode</t>
+  </si>
+  <si>
+    <t>RailP_nRef_mp</t>
+  </si>
+  <si>
+    <t>RailP_numMax_mp</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>Number of rail pressure max values</t>
+  </si>
+  <si>
+    <t>RailP_pFltWinNeg_CURX</t>
+  </si>
+  <si>
+    <t>[0 1 1.5 2 2.5 3 3.5 4 4.5 5]</t>
+  </si>
+  <si>
+    <t>RailP_pFltWinNeg_CUR</t>
+  </si>
+  <si>
+    <t>[10 20 30 40 50 60 70 80 90 100]</t>
+  </si>
+  <si>
+    <t>Rail pressure decrease from which the system switches to the large signal parameter</t>
+  </si>
+  <si>
+    <t>RailP_pSubsCtlDlvMeUn_CUR</t>
+  </si>
+  <si>
+    <t>[6 6 6 6 6 6 6 6 6]</t>
+  </si>
+  <si>
+    <t>Rail pressure for opened PRV and controlled delivery of MeUn</t>
+  </si>
+  <si>
+    <t>RailP_pSubsCtlDlvMeUn_CURX</t>
+  </si>
+  <si>
+    <t>[0 30 60 90 120 150 180 210 240]</t>
+  </si>
+  <si>
+    <t>RailP_facFlt1PT1_C</t>
+  </si>
+  <si>
+    <t>PT1 filter parameter for increasing rail pressure</t>
+  </si>
+  <si>
+    <t>RailP_facFlt2PT1_C</t>
+  </si>
+  <si>
+    <t>PT1 filter parameter for decreasing rail pressure (small signal behaviour)</t>
+  </si>
+  <si>
+    <t>RailP_facFlt3PT1_C</t>
+  </si>
+  <si>
+    <t>PT1 filter parameter for severely decreasing rail pressure (large signal behaviour)</t>
+  </si>
+  <si>
+    <t>RailP_numMax_CUR</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>Curve that delivers the number of rail pressure max values</t>
+  </si>
+  <si>
+    <t>RailP_numMax_CURX</t>
+  </si>
+  <si>
+    <t>[600 800 1000 1200 1400 1600 1800 2000 2200 2400]</t>
+  </si>
+  <si>
+    <t>RailP_nDiffMax_C</t>
+  </si>
+  <si>
+    <t>Speed difference from that a new speed to the determination of the number of rail pressure max values is applied</t>
+  </si>
+  <si>
+    <t>RailP_swtFlt_C</t>
+  </si>
+  <si>
+    <t>Functioning of the peak rail pressure value determination</t>
+  </si>
+  <si>
+    <t>Press_bar1</t>
+  </si>
+  <si>
+    <t>vFlow_mm3ps</t>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Fac_100</t>
+  </si>
+  <si>
+    <t>Fac_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +705,185 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-2500</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-327670</v>
+      </c>
+      <c r="C4" s="5">
+        <v>327670</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-327680</v>
+      </c>
+      <c r="C5" s="5">
+        <v>327670</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C6" s="5">
+        <v>319</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +937,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +1010,7 @@
     <col min="2" max="4" width="9" style="5"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
@@ -604,6 +1039,130 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-327680</v>
+      </c>
+      <c r="C4" s="5">
+        <v>327670</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +1176,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,23 +1216,276 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-327680</v>
+      </c>
+      <c r="C5" s="5">
+        <v>327670</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="6"/>

--- a/spec/ASW/Eng/Fuel/Rail/RailP/RailP_VD/RailP_VD.xlsx
+++ b/spec/ASW/Eng/Fuel/Rail/RailP/RailP_VD/RailP_VD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\Rail\RailP\RailP_VD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82362C72-D005-4785-94C7-010F01CA7395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6BDFC-66D8-4E44-B6C0-D77C350E6ED3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -736,10 +736,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="5">
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="C3" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -896,7 +896,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>76</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>77</v>
